--- a/app/server/static/templates/reports/Apiary_Sites_Summary_Template.xlsx
+++ b/app/server/static/templates/reports/Apiary_Sites_Summary_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gh\nr-mals\app\server\static\templates\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18854168-170B-4662-A194-279E863551E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947004A7-6B39-48B7-A9F3-2F5BBDC816D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="4080" windowWidth="28800" windowHeight="15345" xr2:uid="{11309506-049F-4A42-8D72-2555D662D497}"/>
+    <workbookView xWindow="39870" yWindow="1470" windowWidth="28800" windowHeight="15345" xr2:uid="{11309506-049F-4A42-8D72-2555D662D497}"/>
   </bookViews>
   <sheets>
     <sheet name="Apiary Producer" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Last Name</t>
   </si>
@@ -108,12 +108,6 @@
   </si>
   <si>
     <t>Apiary Sites Summary Report</t>
-  </si>
-  <si>
-    <t>Site IDs</t>
-  </si>
-  <si>
-    <t>{d.Reg[i].SiteIDs}</t>
   </si>
   <si>
     <t>Total # Sites</t>
@@ -522,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B4FD09-964A-4163-B64E-5BD98D9AE9F8}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,10 +547,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="1"/>
@@ -631,11 +625,9 @@
         <v>3</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="13" t="s">
         <v>25</v>
       </c>
+      <c r="J6" s="13"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="O6" s="5"/>
@@ -671,9 +663,6 @@
         <v>10</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
         <v>26</v>
       </c>
       <c r="L7" s="8"/>
@@ -717,6 +706,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8CBF3948AF16E4A9427EB9CB0C3AFDB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fc8a81a77eeb73bda9729b3f784b8c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc8b8595-9fa1-49bc-a016-2621e7bde64e" xmlns:ns3="e1c8ebbc-f196-4c28-98e9-1900bd408e79" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88ad40c7f0e134defa4acd5e486d3459" ns2:_="" ns3:_="">
     <xsd:import namespace="bc8b8595-9fa1-49bc-a016-2621e7bde64e"/>
@@ -927,15 +925,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -943,6 +932,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03155FF8-1FF1-4181-B2B9-505B2808F58D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6470599-A386-4A6B-9059-1EE4DCF6BB3B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -961,14 +958,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03155FF8-1FF1-4181-B2B9-505B2808F58D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE8867F-A406-43FE-8CA7-900664EF104F}">
   <ds:schemaRefs>
